--- a/ProyectoRedes1.xlsx
+++ b/ProyectoRedes1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECFB570-98F6-4B8A-AD06-74F409537BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58000A7B-449F-4AF4-BD9C-4735A711FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11160" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
   <si>
     <t>Valor Posicional</t>
   </si>
@@ -301,52 +301,136 @@
     <t>172.16.18.254</t>
   </si>
   <si>
-    <t>172.16.19.4</t>
-  </si>
-  <si>
     <t>172.16.19.1</t>
   </si>
   <si>
-    <t>172.16.19.2</t>
-  </si>
-  <si>
-    <t>172.16.19.3</t>
-  </si>
-  <si>
-    <t>172.16.19.8</t>
-  </si>
-  <si>
-    <t>172.16.19.7</t>
-  </si>
-  <si>
-    <t>172.16.19.6</t>
-  </si>
-  <si>
-    <t>172.16.19.5</t>
-  </si>
-  <si>
-    <t>172.16.19.12</t>
-  </si>
-  <si>
-    <t>172.16.19.9</t>
-  </si>
-  <si>
-    <t>172.16.19.10</t>
-  </si>
-  <si>
-    <t>172.16.19.11</t>
-  </si>
-  <si>
-    <t>172.16.19.14</t>
-  </si>
-  <si>
-    <t>172.16.19.13</t>
-  </si>
-  <si>
-    <t>172.16.19.16</t>
-  </si>
-  <si>
-    <t>172.16.19.15</t>
+    <t>Puertos</t>
+  </si>
+  <si>
+    <t>Vlan</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-10</t>
+  </si>
+  <si>
+    <t>Teléfonos IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 - 23</t>
+  </si>
+  <si>
+    <t>Hosts</t>
+  </si>
+  <si>
+    <t>Cajas</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>172.16.19.64</t>
+  </si>
+  <si>
+    <t>172.16.19.63</t>
+  </si>
+  <si>
+    <t>172.16.19.62</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>172.16.19.128</t>
+  </si>
+  <si>
+    <t>172.16.19.127</t>
+  </si>
+  <si>
+    <t>172.16.19.126</t>
+  </si>
+  <si>
+    <t>172.16.19.65</t>
+  </si>
+  <si>
+    <t>172.16.19.144</t>
+  </si>
+  <si>
+    <t>172.16.19.143</t>
+  </si>
+  <si>
+    <t>172.16.19.142</t>
+  </si>
+  <si>
+    <t>172.16.19.129</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>172.16.19.160</t>
+  </si>
+  <si>
+    <t>172.16.19.159</t>
+  </si>
+  <si>
+    <t>172.16.19.158</t>
+  </si>
+  <si>
+    <t>172.16.19.145</t>
+  </si>
+  <si>
+    <t>172.16.19.164</t>
+  </si>
+  <si>
+    <t>172.16.19.163</t>
+  </si>
+  <si>
+    <t>172.16.19.162</t>
+  </si>
+  <si>
+    <t>172.16.19.161</t>
+  </si>
+  <si>
+    <t>172.16.19.168</t>
+  </si>
+  <si>
+    <t>172.16.19.167</t>
+  </si>
+  <si>
+    <t>172.16.19.166</t>
+  </si>
+  <si>
+    <t>172.16.19.165</t>
+  </si>
+  <si>
+    <t>172.16.19.172</t>
+  </si>
+  <si>
+    <t>172.16.19.171</t>
+  </si>
+  <si>
+    <t>172.16.19.170</t>
+  </si>
+  <si>
+    <t>172.16.19.169</t>
+  </si>
+  <si>
+    <t>172.16.19.173</t>
+  </si>
+  <si>
+    <t>172.16.19.174</t>
+  </si>
+  <si>
+    <t>172.16.19.175</t>
   </si>
 </sst>
 </file>
@@ -484,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -512,6 +596,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -526,17 +619,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,15 +652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>294654</xdr:colOff>
+      <xdr:colOff>256560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124235</xdr:rowOff>
+      <xdr:rowOff>181384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>129522</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>147093</xdr:rowOff>
+      <xdr:colOff>91428</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -583,8 +675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="8425290" y="822860"/>
-          <a:ext cx="1546858" cy="149607"/>
+          <a:off x="9177978" y="880216"/>
+          <a:ext cx="1546858" cy="149193"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1048,9 +1140,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA803A-152E-491C-A5C1-E0A57E2D2EC3}">
-  <dimension ref="A2:AQ30"/>
+  <dimension ref="A2:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AL33" sqref="AL33"/>
     </sheetView>
   </sheetViews>
@@ -1072,8 +1164,12 @@
     <col min="24" max="24" width="5.42578125" customWidth="1"/>
     <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.5703125" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" customWidth="1"/>
-    <col min="28" max="35" width="4.7109375" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="4.7109375" customWidth="1"/>
     <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.140625" customWidth="1"/>
     <col min="38" max="38" width="16.28515625" customWidth="1"/>
@@ -1349,46 +1445,46 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="J5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="S5" s="17" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="S5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AB5" s="18" t="s">
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AB5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1541,13 +1637,13 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB10" s="14" t="s">
+      <c r="AB10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
       <c r="AG10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1556,11 +1652,11 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
       <c r="AG11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1573,11 +1669,11 @@
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
       <c r="AG12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1586,11 +1682,11 @@
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
       <c r="AG13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1613,17 +1709,17 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
       <c r="AK16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1647,13 +1743,13 @@
       </c>
     </row>
     <row r="17" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA17" s="19" t="s">
+      <c r="AA17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="22" t="s">
         <v>51</v>
       </c>
@@ -1669,7 +1765,7 @@
       <c r="AL17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AM17" s="21" t="s">
+      <c r="AM17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="AN17" s="9" t="s">
@@ -1686,13 +1782,13 @@
       </c>
     </row>
     <row r="18" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA18" s="19" t="s">
+      <c r="AA18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
       <c r="AF18" s="22" t="s">
         <v>66</v>
       </c>
@@ -1705,16 +1801,16 @@
       <c r="AK18" s="9">
         <v>700</v>
       </c>
-      <c r="AL18" s="21" t="s">
+      <c r="AL18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AM18" s="21" t="s">
+      <c r="AM18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AN18" s="21" t="s">
+      <c r="AN18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AO18" s="21" t="s">
+      <c r="AO18" s="14" t="s">
         <v>29</v>
       </c>
       <c r="AP18" s="12" t="s">
@@ -1725,13 +1821,13 @@
       </c>
     </row>
     <row r="19" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA19" s="19" t="s">
+      <c r="AA19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
       <c r="AF19" s="22" t="s">
         <v>67</v>
       </c>
@@ -1744,16 +1840,16 @@
       <c r="AK19" s="9">
         <v>500</v>
       </c>
-      <c r="AL19" s="21" t="s">
+      <c r="AL19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="AM19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AN19" s="21" t="s">
+      <c r="AN19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AO19" s="21" t="s">
+      <c r="AO19" s="14" t="s">
         <v>72</v>
       </c>
       <c r="AP19" s="12" t="s">
@@ -1764,13 +1860,13 @@
       </c>
     </row>
     <row r="20" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
       <c r="AF20" s="22" t="s">
         <v>50</v>
       </c>
@@ -1783,16 +1879,16 @@
       <c r="AK20" s="9">
         <v>400</v>
       </c>
-      <c r="AL20" s="21" t="s">
+      <c r="AL20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AM20" s="21" t="s">
+      <c r="AM20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AN20" s="21" t="s">
+      <c r="AN20" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AO20" s="21" t="s">
+      <c r="AO20" s="14" t="s">
         <v>75</v>
       </c>
       <c r="AP20" s="12" t="s">
@@ -1803,13 +1899,13 @@
       </c>
     </row>
     <row r="21" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA21" s="19" t="s">
+      <c r="AA21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="22" t="s">
         <v>68</v>
       </c>
@@ -1822,16 +1918,16 @@
       <c r="AK21" s="9">
         <v>200</v>
       </c>
-      <c r="AL21" s="21" t="s">
+      <c r="AL21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AM21" s="21" t="s">
+      <c r="AM21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AN21" s="21" t="s">
+      <c r="AN21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AO21" s="21" t="s">
+      <c r="AO21" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AP21" s="12" t="s">
@@ -1842,13 +1938,13 @@
       </c>
     </row>
     <row r="22" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA22" s="19" t="s">
+      <c r="AA22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
       <c r="AF22" s="22" t="s">
         <v>69</v>
       </c>
@@ -1861,16 +1957,16 @@
       <c r="AK22" s="9">
         <v>175</v>
       </c>
-      <c r="AL22" s="21" t="s">
+      <c r="AL22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AM22" s="21" t="s">
+      <c r="AM22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AN22" s="21" t="s">
+      <c r="AN22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AO22" s="21" t="s">
+      <c r="AO22" s="14" t="s">
         <v>81</v>
       </c>
       <c r="AP22" s="12" t="s">
@@ -1881,13 +1977,13 @@
       </c>
     </row>
     <row r="23" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA23" s="19" t="s">
+      <c r="AA23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="22" t="s">
         <v>52</v>
       </c>
@@ -1900,16 +1996,16 @@
       <c r="AK23" s="9">
         <v>150</v>
       </c>
-      <c r="AL23" s="21" t="s">
+      <c r="AL23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AM23" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AN23" s="21" t="s">
+      <c r="AN23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO23" s="21" t="s">
+      <c r="AO23" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AP23" s="12" t="s">
@@ -1920,13 +2016,13 @@
       </c>
     </row>
     <row r="24" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA24" s="19" t="s">
+      <c r="AA24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
       <c r="AF24" s="22" t="s">
         <v>70</v>
       </c>
@@ -1939,16 +2035,16 @@
       <c r="AK24" s="9">
         <v>80</v>
       </c>
-      <c r="AL24" s="21" t="s">
+      <c r="AL24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AM24" s="21" t="s">
+      <c r="AM24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AN24" s="21" t="s">
+      <c r="AN24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AO24" s="21" t="s">
+      <c r="AO24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AP24" s="12">
@@ -1959,13 +2055,13 @@
       </c>
     </row>
     <row r="25" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA25" s="19" t="s">
+      <c r="AA25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
       <c r="AF25" s="22" t="s">
         <v>50</v>
       </c>
@@ -1978,16 +2074,16 @@
       <c r="AK25" s="9">
         <v>80</v>
       </c>
-      <c r="AL25" s="21" t="s">
+      <c r="AL25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AM25" s="21" t="s">
+      <c r="AM25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AN25" s="21" t="s">
+      <c r="AN25" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="AO25" s="21" t="s">
+      <c r="AO25" s="14" t="s">
         <v>86</v>
       </c>
       <c r="AP25" s="12">
@@ -1998,198 +2094,355 @@
       </c>
     </row>
     <row r="26" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA26" s="19" t="s">
+      <c r="AA26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19">
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15">
         <v>4</v>
       </c>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
       <c r="AJ26">
         <v>10</v>
       </c>
       <c r="AK26" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AM26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO26" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP26" s="12">
-        <v>255255255252</v>
+      <c r="AM26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP26" s="26">
+        <v>255255255192</v>
       </c>
       <c r="AQ26" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA27" s="19" t="s">
+      <c r="AA27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19">
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15">
         <v>4</v>
       </c>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
       <c r="AJ27">
         <v>11</v>
       </c>
       <c r="AK27" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL27" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM27" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN27" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO27" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP27" s="12">
-        <v>255255255252</v>
+        <v>50</v>
+      </c>
+      <c r="AL27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP27" s="26">
+        <v>255255255192</v>
       </c>
       <c r="AQ27" s="9" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA28" s="19" t="s">
+      <c r="AA28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19">
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15">
         <v>4</v>
       </c>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
       <c r="AJ28">
         <v>12</v>
       </c>
       <c r="AK28" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL28" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM28" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO28" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP28" s="12">
-        <v>255255255252</v>
+        <v>12</v>
+      </c>
+      <c r="AL28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP28" s="26">
+        <v>255255255240</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA29" s="19" t="s">
+      <c r="AA29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19">
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15">
         <v>4</v>
       </c>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
       <c r="AJ29">
         <v>13</v>
       </c>
       <c r="AK29" s="9">
-        <v>2</v>
-      </c>
-      <c r="AL29" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM29" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN29" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP29" s="12">
-        <v>255255255252</v>
+        <v>10</v>
+      </c>
+      <c r="AL29" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN29" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP29" s="26">
+        <v>255255255240</v>
       </c>
       <c r="AQ29" s="9" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA30" s="19" t="s">
+      <c r="AA30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19">
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15">
         <v>4</v>
       </c>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
       <c r="AJ30">
         <v>14</v>
       </c>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
+      <c r="AK30" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM30" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO30" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP30" s="26">
+        <v>255255255252</v>
+      </c>
+      <c r="AQ30" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AJ31">
+        <v>15</v>
+      </c>
+      <c r="AK31" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP31" s="26">
+        <v>255255255252</v>
+      </c>
+      <c r="AQ31" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ32">
+        <v>16</v>
+      </c>
+      <c r="AK32" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN32" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP32" s="26">
+        <v>255255255252</v>
+      </c>
+      <c r="AQ32" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA33" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB33" s="24">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>60</v>
+      </c>
+      <c r="AJ33">
+        <v>17</v>
+      </c>
+      <c r="AK33" s="9">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN33" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO33" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP33" s="26">
+        <v>255255255252</v>
+      </c>
+      <c r="AQ33" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB34" s="24">
+        <v>20</v>
+      </c>
+      <c r="AC34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD34" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA35" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB35" s="24">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD35" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB36" s="24">
+        <v>40</v>
+      </c>
+      <c r="AC36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD36" s="24">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AA29:AE29"/>
+  <mergeCells count="35">
+    <mergeCell ref="AA32:AB32"/>
     <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="AF18:AI18"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
     <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AA29:AE29"/>
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="AF23:AI23"/>
     <mergeCell ref="AF24:AI24"/>
@@ -2198,16 +2451,6 @@
     <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AF28:AI28"/>
     <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
     <mergeCell ref="AA27:AE27"/>
     <mergeCell ref="AA28:AE28"/>
     <mergeCell ref="AA16:AI16"/>
@@ -2216,6 +2459,14 @@
     <mergeCell ref="J5:Q5"/>
     <mergeCell ref="S5:Z5"/>
     <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProyectoRedes1.xlsx
+++ b/ProyectoRedes1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58000A7B-449F-4AF4-BD9C-4735A711FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C263F-BAA7-4457-B1A4-9360C09B8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11160" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -627,9 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA803A-152E-491C-A5C1-E0A57E2D2EC3}">
   <dimension ref="A2:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL33" sqref="AL33"/>
+    <sheetView tabSelected="1" topLeftCell="AC21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2122,7 @@
       <c r="AO26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AP26" s="26">
+      <c r="AP26" s="12">
         <v>255255255192</v>
       </c>
       <c r="AQ26" s="9" t="s">
@@ -2164,7 +2161,7 @@
       <c r="AO27" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="AP27" s="26">
+      <c r="AP27" s="12">
         <v>255255255192</v>
       </c>
       <c r="AQ27" s="9" t="s">
@@ -2203,7 +2200,7 @@
       <c r="AO28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AP28" s="26">
+      <c r="AP28" s="12">
         <v>255255255240</v>
       </c>
       <c r="AQ28" s="9" t="s">
@@ -2242,7 +2239,7 @@
       <c r="AO29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AP29" s="26">
+      <c r="AP29" s="12">
         <v>255255255240</v>
       </c>
       <c r="AQ29" s="9" t="s">
@@ -2281,7 +2278,7 @@
       <c r="AO30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AP30" s="26">
+      <c r="AP30" s="12">
         <v>255255255252</v>
       </c>
       <c r="AQ30" s="9" t="s">
@@ -2307,7 +2304,7 @@
       <c r="AO31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="AP31" s="26">
+      <c r="AP31" s="12">
         <v>255255255252</v>
       </c>
       <c r="AQ31" s="9" t="s">
@@ -2343,7 +2340,7 @@
       <c r="AO32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AP32" s="26">
+      <c r="AP32" s="12">
         <v>255255255252</v>
       </c>
       <c r="AQ32" s="9" t="s">
@@ -2381,7 +2378,7 @@
       <c r="AO33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AP33" s="26">
+      <c r="AP33" s="12">
         <v>255255255252</v>
       </c>
       <c r="AQ33" s="9" t="s">

--- a/ProyectoRedes1.xlsx
+++ b/ProyectoRedes1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6C263F-BAA7-4457-B1A4-9360C09B8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C6F80-7E09-40F3-9CD4-D18FDC6BC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11160" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
   </bookViews>
@@ -598,6 +598,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -619,14 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA803A-152E-491C-A5C1-E0A57E2D2EC3}">
   <dimension ref="A2:AQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
+    <sheetView tabSelected="1" topLeftCell="U27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,46 +1442,46 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="J5" s="19" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="S5" s="20" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="S5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AB5" s="21" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AB5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1634,13 +1634,13 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
       <c r="AG10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1649,11 +1649,11 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
       <c r="AG11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1666,11 +1666,11 @@
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
       <c r="AG12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1679,11 +1679,11 @@
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
       <c r="AG13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1706,17 +1706,17 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AA16" s="16" t="s">
+      <c r="AA16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
       <c r="AK16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1740,19 +1740,19 @@
       </c>
     </row>
     <row r="17" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA17" s="15" t="s">
+      <c r="AA17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="22" t="s">
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
       <c r="AJ17">
         <v>1</v>
       </c>
@@ -1779,19 +1779,19 @@
       </c>
     </row>
     <row r="18" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA18" s="15" t="s">
+      <c r="AA18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="22" t="s">
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
       <c r="AJ18">
         <v>2</v>
       </c>
@@ -1818,19 +1818,19 @@
       </c>
     </row>
     <row r="19" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA19" s="15" t="s">
+      <c r="AA19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="22" t="s">
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
       <c r="AJ19">
         <v>3</v>
       </c>
@@ -1857,19 +1857,19 @@
       </c>
     </row>
     <row r="20" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="22" t="s">
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
       <c r="AJ20">
         <v>4</v>
       </c>
@@ -1896,19 +1896,19 @@
       </c>
     </row>
     <row r="21" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="22" t="s">
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
       <c r="AJ21">
         <v>5</v>
       </c>
@@ -1935,19 +1935,19 @@
       </c>
     </row>
     <row r="22" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA22" s="15" t="s">
+      <c r="AA22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="22" t="s">
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
       <c r="AJ22">
         <v>6</v>
       </c>
@@ -1974,19 +1974,19 @@
       </c>
     </row>
     <row r="23" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA23" s="15" t="s">
+      <c r="AA23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="22" t="s">
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
       <c r="AJ23">
         <v>7</v>
       </c>
@@ -2013,19 +2013,19 @@
       </c>
     </row>
     <row r="24" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA24" s="15" t="s">
+      <c r="AA24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="22" t="s">
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
       <c r="AJ24">
         <v>8</v>
       </c>
@@ -2052,19 +2052,19 @@
       </c>
     </row>
     <row r="25" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA25" s="15" t="s">
+      <c r="AA25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="22" t="s">
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
       <c r="AJ25">
         <v>9</v>
       </c>
@@ -2091,19 +2091,19 @@
       </c>
     </row>
     <row r="26" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA26" s="15" t="s">
+      <c r="AA26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15">
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19">
         <v>4</v>
       </c>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
       <c r="AJ26">
         <v>10</v>
       </c>
@@ -2130,19 +2130,19 @@
       </c>
     </row>
     <row r="27" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA27" s="15" t="s">
+      <c r="AA27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15">
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19">
         <v>4</v>
       </c>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
       <c r="AJ27">
         <v>11</v>
       </c>
@@ -2169,19 +2169,19 @@
       </c>
     </row>
     <row r="28" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15">
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19">
         <v>4</v>
       </c>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
       <c r="AJ28">
         <v>12</v>
       </c>
@@ -2208,19 +2208,19 @@
       </c>
     </row>
     <row r="29" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA29" s="15" t="s">
+      <c r="AA29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15">
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19">
         <v>4</v>
       </c>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
       <c r="AJ29">
         <v>13</v>
       </c>
@@ -2247,19 +2247,19 @@
       </c>
     </row>
     <row r="30" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA30" s="15" t="s">
+      <c r="AA30" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15">
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19">
         <v>4</v>
       </c>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
       <c r="AJ30">
         <v>14</v>
       </c>
@@ -2312,11 +2312,11 @@
       </c>
     </row>
     <row r="32" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA32" s="23" t="s">
+      <c r="AA32" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="24" t="s">
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="15" t="s">
         <v>89</v>
       </c>
       <c r="AD32" s="14" t="s">
@@ -2348,16 +2348,16 @@
       </c>
     </row>
     <row r="33" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA33" s="24" t="s">
+      <c r="AA33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AB33" s="15">
         <v>10</v>
       </c>
-      <c r="AC33" s="25" t="s">
+      <c r="AC33" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AD33" s="24">
+      <c r="AD33" s="15">
         <v>60</v>
       </c>
       <c r="AJ33">
@@ -2386,49 +2386,68 @@
       </c>
     </row>
     <row r="34" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA34" s="24" t="s">
+      <c r="AA34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AB34" s="24">
+      <c r="AB34" s="15">
         <v>20</v>
       </c>
-      <c r="AC34" s="25" t="s">
+      <c r="AC34" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AD34" s="24">
+      <c r="AD34" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA35" s="24" t="s">
+      <c r="AA35" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AB35" s="24">
+      <c r="AB35" s="15">
         <v>30</v>
       </c>
-      <c r="AC35" s="24" t="s">
+      <c r="AC35" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AD35" s="24">
+      <c r="AD35" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA36" s="24" t="s">
+      <c r="AA36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AB36" s="24">
+      <c r="AB36" s="15">
         <v>40</v>
       </c>
-      <c r="AC36" s="24" t="s">
+      <c r="AC36" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AD36" s="24">
+      <c r="AD36" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA16:AI16"/>
+    <mergeCell ref="AB10:AF13"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="AB5:AI5"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
     <mergeCell ref="AA32:AB32"/>
     <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="AF18:AI18"/>
@@ -2445,25 +2464,6 @@
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AF25:AI25"/>
     <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AA16:AI16"/>
-    <mergeCell ref="AB10:AF13"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="AB5:AI5"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AA19:AE19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProyectoRedes1.xlsx
+++ b/ProyectoRedes1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C6F80-7E09-40F3-9CD4-D18FDC6BC6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42795CE2-C2D8-4FE6-A6C5-60C43238FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1440" windowWidth="20730" windowHeight="11160" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
   <si>
     <t>Valor Posicional</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>Enlace Cuatro</t>
-  </si>
-  <si>
-    <t>Enlace Cinco</t>
   </si>
   <si>
     <t>700 host</t>
@@ -600,12 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -626,6 +617,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA803A-152E-491C-A5C1-E0A57E2D2EC3}">
-  <dimension ref="A2:AQ36"/>
+  <dimension ref="A2:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+    <sheetView tabSelected="1" topLeftCell="U7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,46 +1439,46 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="23" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="J5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="S5" s="24" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="S5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AB5" s="25" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AB5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1634,13 +1631,13 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB10" s="21" t="s">
+      <c r="AB10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
       <c r="AG10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1649,11 +1646,11 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
       <c r="AG11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1666,11 +1663,11 @@
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
       <c r="AG12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1679,11 +1676,11 @@
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
       <c r="AG13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1706,17 +1703,17 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
       <c r="AK16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1740,19 +1737,19 @@
       </c>
     </row>
     <row r="17" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA17" s="19" t="s">
+      <c r="AA17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="18" t="s">
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
       <c r="AJ17">
         <v>1</v>
       </c>
@@ -1779,19 +1776,19 @@
       </c>
     </row>
     <row r="18" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA18" s="19" t="s">
+      <c r="AA18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
       <c r="AJ18">
         <v>2</v>
       </c>
@@ -1818,19 +1815,19 @@
       </c>
     </row>
     <row r="19" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA19" s="19" t="s">
+      <c r="AA19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
       <c r="AJ19">
         <v>3</v>
       </c>
@@ -1844,10 +1841,10 @@
         <v>36</v>
       </c>
       <c r="AN19" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AO19" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AP19" s="12" t="s">
         <v>42</v>
@@ -1857,19 +1854,19 @@
       </c>
     </row>
     <row r="20" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA20" s="19" t="s">
+      <c r="AA20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="18" t="s">
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
       <c r="AJ20">
         <v>4</v>
       </c>
@@ -1877,38 +1874,38 @@
         <v>400</v>
       </c>
       <c r="AL20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN20" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO20" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ20" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA21" s="19" t="s">
+      <c r="AA21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
       <c r="AJ21">
         <v>5</v>
       </c>
@@ -1916,10 +1913,10 @@
         <v>200</v>
       </c>
       <c r="AL21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM21" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN21" s="14" t="s">
         <v>37</v>
@@ -1931,23 +1928,23 @@
         <v>6</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA22" s="19" t="s">
+      <c r="AA22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
       <c r="AJ22">
         <v>6</v>
       </c>
@@ -1961,32 +1958,32 @@
         <v>41</v>
       </c>
       <c r="AN22" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP22" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA23" s="19" t="s">
+      <c r="AA23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="18" t="s">
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
       <c r="AJ23">
         <v>7</v>
       </c>
@@ -1994,10 +1991,10 @@
         <v>150</v>
       </c>
       <c r="AL23" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM23" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN23" s="14" t="s">
         <v>39</v>
@@ -2009,23 +2006,23 @@
         <v>6</v>
       </c>
       <c r="AQ23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA24" s="19" t="s">
+      <c r="AA24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
       <c r="AJ24">
         <v>8</v>
       </c>
@@ -2052,19 +2049,19 @@
       </c>
     </row>
     <row r="25" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA25" s="19" t="s">
+      <c r="AA25" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="18" t="s">
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
       <c r="AJ25">
         <v>9</v>
       </c>
@@ -2075,13 +2072,13 @@
         <v>43</v>
       </c>
       <c r="AM25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO25" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="AN25" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO25" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="AP25" s="12">
         <v>255255255128</v>
@@ -2091,19 +2088,19 @@
       </c>
     </row>
     <row r="26" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA26" s="19" t="s">
+      <c r="AA26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19">
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17">
         <v>4</v>
       </c>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
       <c r="AJ26">
         <v>10</v>
       </c>
@@ -2111,38 +2108,38 @@
         <v>60</v>
       </c>
       <c r="AL26" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO26" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP26" s="12">
         <v>255255255192</v>
       </c>
       <c r="AQ26" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA27" s="19" t="s">
+      <c r="AA27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19">
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17">
         <v>4</v>
       </c>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
       <c r="AJ27">
         <v>11</v>
       </c>
@@ -2150,38 +2147,38 @@
         <v>50</v>
       </c>
       <c r="AL27" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM27" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP27" s="12">
         <v>255255255192</v>
       </c>
       <c r="AQ27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA28" s="19" t="s">
+      <c r="AA28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19">
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17">
         <v>4</v>
       </c>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
       <c r="AJ28">
         <v>12</v>
       </c>
@@ -2189,38 +2186,38 @@
         <v>12</v>
       </c>
       <c r="AL28" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AM28" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN28" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO28" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AP28" s="12">
         <v>255255255240</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA29" s="19" t="s">
+      <c r="AA29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19">
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17">
         <v>4</v>
       </c>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
       <c r="AJ29">
         <v>13</v>
       </c>
@@ -2228,38 +2225,25 @@
         <v>10</v>
       </c>
       <c r="AL29" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AM29" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN29" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO29" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP29" s="12">
         <v>255255255240</v>
       </c>
       <c r="AQ29" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19">
-        <v>4</v>
-      </c>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
       <c r="AJ30">
         <v>14</v>
       </c>
@@ -2267,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="AL30" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AM30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AN30" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AO30" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP30" s="12">
         <v>255255255252</v>
@@ -2286,6 +2270,16 @@
       </c>
     </row>
     <row r="31" spans="27:43" x14ac:dyDescent="0.25">
+      <c r="AA31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD31" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="AJ31">
         <v>15</v>
       </c>
@@ -2293,16 +2287,16 @@
         <v>2</v>
       </c>
       <c r="AL31" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AM31" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN31" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO31" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AP31" s="12">
         <v>255255255252</v>
@@ -2312,15 +2306,17 @@
       </c>
     </row>
     <row r="32" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA32" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD32" s="14" t="s">
-        <v>97</v>
+      <c r="AA32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD32" s="15">
+        <v>60</v>
       </c>
       <c r="AJ32">
         <v>16</v>
@@ -2329,16 +2325,16 @@
         <v>2</v>
       </c>
       <c r="AL32" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AM32" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN32" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO32" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AP32" s="12">
         <v>255255255252</v>
@@ -2349,16 +2345,16 @@
     </row>
     <row r="33" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>20</v>
+      </c>
+      <c r="AC33" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="AB33" s="15">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="16" t="s">
-        <v>92</v>
-      </c>
       <c r="AD33" s="15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ33">
         <v>17</v>
@@ -2367,16 +2363,16 @@
         <v>2</v>
       </c>
       <c r="AL33" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AM33" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN33" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AN33" s="14" t="s">
+      <c r="AO33" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="AO33" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="AP33" s="12">
         <v>255255255252</v>
@@ -2387,68 +2383,45 @@
     </row>
     <row r="34" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA34" s="15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AB34" s="15">
-        <v>20</v>
-      </c>
-      <c r="AC34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC34" s="15" t="s">
         <v>94</v>
       </c>
       <c r="AD34" s="15">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA35" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB35" s="15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC35" s="15" t="s">
         <v>95</v>
       </c>
       <c r="AD35" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA36" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB36" s="15">
-        <v>40</v>
-      </c>
-      <c r="AC36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD36" s="15">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AA16:AI16"/>
-    <mergeCell ref="AB10:AF13"/>
+  <mergeCells count="33">
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA29:AE29"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J5:Q5"/>
     <mergeCell ref="S5:Z5"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AA32:AB32"/>
     <mergeCell ref="AF17:AI17"/>
     <mergeCell ref="AF18:AI18"/>
     <mergeCell ref="AF19:AI19"/>
@@ -2456,14 +2429,21 @@
     <mergeCell ref="AF21:AI21"/>
     <mergeCell ref="AA20:AE20"/>
     <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AA29:AE29"/>
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="AF23:AI23"/>
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA16:AI16"/>
+    <mergeCell ref="AB10:AF13"/>
     <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProyectoRedes1.xlsx
+++ b/ProyectoRedes1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEANDRO\Trabajos de la U\Redes de Computadoras I\Proyecto Redes I\ProyectoRedes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42795CE2-C2D8-4FE6-A6C5-60C43238FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B6F18-1164-440D-BB46-F3D51BC4B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F21E1D3-BA0F-4986-BCFE-73507232476D}"/>
   </bookViews>
@@ -166,15 +166,6 @@
     <t>255.255.254.0</t>
   </si>
   <si>
-    <t>172.16.18.128</t>
-  </si>
-  <si>
-    <t>172.16.18.127</t>
-  </si>
-  <si>
-    <t>172.16.18.126</t>
-  </si>
-  <si>
     <t>172.16.18.1</t>
   </si>
   <si>
@@ -256,24 +247,12 @@
     <t>172.16.13.254</t>
   </si>
   <si>
-    <t>172.16.15.0</t>
-  </si>
-  <si>
-    <t>172.16.14.255</t>
-  </si>
-  <si>
-    <t>172.16.14.254</t>
-  </si>
-  <si>
     <t>172.16.14.1</t>
   </si>
   <si>
     <t>/24</t>
   </si>
   <si>
-    <t>172.16.15.1</t>
-  </si>
-  <si>
     <t>172.16.17.0</t>
   </si>
   <si>
@@ -289,9 +268,6 @@
     <t>172.16.19.0</t>
   </si>
   <si>
-    <t>172.16.18.129</t>
-  </si>
-  <si>
     <t>172.16.18.255</t>
   </si>
   <si>
@@ -334,15 +310,6 @@
     <t>Gerencia</t>
   </si>
   <si>
-    <t>172.16.19.64</t>
-  </si>
-  <si>
-    <t>172.16.19.63</t>
-  </si>
-  <si>
-    <t>172.16.19.62</t>
-  </si>
-  <si>
     <t>/26</t>
   </si>
   <si>
@@ -355,79 +322,112 @@
     <t>172.16.19.126</t>
   </si>
   <si>
-    <t>172.16.19.65</t>
-  </si>
-  <si>
-    <t>172.16.19.144</t>
-  </si>
-  <si>
-    <t>172.16.19.143</t>
-  </si>
-  <si>
-    <t>172.16.19.142</t>
-  </si>
-  <si>
     <t>172.16.19.129</t>
   </si>
   <si>
     <t>/28</t>
   </si>
   <si>
-    <t>172.16.19.160</t>
-  </si>
-  <si>
-    <t>172.16.19.159</t>
-  </si>
-  <si>
-    <t>172.16.19.158</t>
-  </si>
-  <si>
-    <t>172.16.19.145</t>
-  </si>
-  <si>
-    <t>172.16.19.164</t>
-  </si>
-  <si>
-    <t>172.16.19.163</t>
-  </si>
-  <si>
-    <t>172.16.19.162</t>
-  </si>
-  <si>
-    <t>172.16.19.161</t>
-  </si>
-  <si>
-    <t>172.16.19.168</t>
-  </si>
-  <si>
-    <t>172.16.19.167</t>
-  </si>
-  <si>
-    <t>172.16.19.166</t>
-  </si>
-  <si>
-    <t>172.16.19.165</t>
-  </si>
-  <si>
-    <t>172.16.19.172</t>
-  </si>
-  <si>
-    <t>172.16.19.171</t>
-  </si>
-  <si>
-    <t>172.16.19.170</t>
-  </si>
-  <si>
-    <t>172.16.19.169</t>
-  </si>
-  <si>
-    <t>172.16.19.173</t>
-  </si>
-  <si>
-    <t>172.16.19.174</t>
-  </si>
-  <si>
-    <t>172.16.19.175</t>
+    <t>172.16.19.254</t>
+  </si>
+  <si>
+    <t>172.16.19.255</t>
+  </si>
+  <si>
+    <t>172.16.20.0</t>
+  </si>
+  <si>
+    <t>172.16.20.64</t>
+  </si>
+  <si>
+    <t>172.16.20.63</t>
+  </si>
+  <si>
+    <t>172.16.20.62</t>
+  </si>
+  <si>
+    <t>172.16.20.1</t>
+  </si>
+  <si>
+    <t>172.16.20.128</t>
+  </si>
+  <si>
+    <t>172.16.20.127</t>
+  </si>
+  <si>
+    <t>172.16.20.126</t>
+  </si>
+  <si>
+    <t>172.16.20.65</t>
+  </si>
+  <si>
+    <t>172.16.20.144</t>
+  </si>
+  <si>
+    <t>172.16.20.143</t>
+  </si>
+  <si>
+    <t>172.16.20.142</t>
+  </si>
+  <si>
+    <t>172.16.20.129</t>
+  </si>
+  <si>
+    <t>172.16.20.160</t>
+  </si>
+  <si>
+    <t>172.16.20.159</t>
+  </si>
+  <si>
+    <t>172.16.20.158</t>
+  </si>
+  <si>
+    <t>172.16.20.145</t>
+  </si>
+  <si>
+    <t>172.16.20.164</t>
+  </si>
+  <si>
+    <t>172.16.20.163</t>
+  </si>
+  <si>
+    <t>172.16.20.162</t>
+  </si>
+  <si>
+    <t>172.16.20.161</t>
+  </si>
+  <si>
+    <t>172.16.20.168</t>
+  </si>
+  <si>
+    <t>172.16.20.167</t>
+  </si>
+  <si>
+    <t>172.16.20.166</t>
+  </si>
+  <si>
+    <t>172.16.20.165</t>
+  </si>
+  <si>
+    <t>172.16.20.172</t>
+  </si>
+  <si>
+    <t>172.16.20.171</t>
+  </si>
+  <si>
+    <t>172.16.20.170</t>
+  </si>
+  <si>
+    <t>172.16.20.169</t>
+  </si>
+  <si>
+    <t>172.16.20.173</t>
+  </si>
+  <si>
+    <t>172.16.20.174</t>
+  </si>
+  <si>
+    <t>172.16.20.175</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -600,11 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,11 +615,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,15 +655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>256560</xdr:colOff>
+      <xdr:colOff>313712</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>181384</xdr:rowOff>
+      <xdr:rowOff>162333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>91428</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13742</xdr:rowOff>
+      <xdr:colOff>148580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -669,7 +678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9177978" y="880216"/>
+          <a:off x="9235130" y="861165"/>
           <a:ext cx="1546858" cy="149193"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -706,15 +715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>281116</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>163009</xdr:rowOff>
+      <xdr:colOff>300166</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>224624</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168924</xdr:rowOff>
+      <xdr:colOff>243674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -729,8 +738,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8166159" y="1306009"/>
-          <a:ext cx="887726" cy="386915"/>
+          <a:off x="8891716" y="1334584"/>
+          <a:ext cx="972208" cy="386915"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -774,15 +783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>154915</xdr:colOff>
+      <xdr:colOff>126340</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157011</xdr:rowOff>
+      <xdr:rowOff>176061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>182990</xdr:colOff>
+      <xdr:colOff>154415</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>366</xdr:rowOff>
+      <xdr:rowOff>19416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -797,8 +806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9298915" y="1300011"/>
-          <a:ext cx="657553" cy="414855"/>
+          <a:off x="10060915" y="1319061"/>
+          <a:ext cx="656725" cy="414855"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -1136,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBA803A-152E-491C-A5C1-E0A57E2D2EC3}">
   <dimension ref="A2:AQ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA38" sqref="AA38"/>
+    <sheetView tabSelected="1" topLeftCell="Y10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,46 +1448,46 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="J5" s="21" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="J5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="S5" s="22" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AB5" s="23" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AB5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1631,13 +1640,13 @@
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB10" s="19" t="s">
+      <c r="AB10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
       <c r="AG10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1646,11 +1655,11 @@
       <c r="AJ10" s="6"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1663,11 +1672,11 @@
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
       <c r="AG12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1676,11 +1685,11 @@
       <c r="AJ12" s="5"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
       <c r="AG13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1703,17 +1712,17 @@
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AA16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
+      <c r="AA16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
       <c r="AK16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1738,18 +1747,18 @@
     </row>
     <row r="17" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA17" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
-      <c r="AF17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
+      <c r="AF17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
       <c r="AJ17">
         <v>1</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="AM17" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AN17" s="9" t="s">
         <v>27</v>
@@ -1768,27 +1777,27 @@
       <c r="AO17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AP17" s="12" t="s">
+      <c r="AP17" s="26" t="s">
         <v>32</v>
       </c>
       <c r="AQ17" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA18" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
-      <c r="AF18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
+      <c r="AF18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
       <c r="AJ18">
         <v>2</v>
       </c>
@@ -1807,27 +1816,27 @@
       <c r="AO18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AP18" s="12" t="s">
+      <c r="AP18" s="26" t="s">
         <v>33</v>
       </c>
       <c r="AQ18" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA19" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
-      <c r="AF19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
+      <c r="AF19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
       <c r="AJ19">
         <v>3</v>
       </c>
@@ -1841,255 +1850,255 @@
         <v>36</v>
       </c>
       <c r="AN19" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AO19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP19" s="26" t="s">
         <v>42</v>
       </c>
       <c r="AQ19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA20" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
-      <c r="AF20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
+      <c r="AF20" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
       <c r="AJ20">
         <v>4</v>
       </c>
       <c r="AK20" s="9">
         <v>400</v>
       </c>
-      <c r="AL20" s="14" t="s">
+      <c r="AL20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AM20" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="AN20" s="14" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AO20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP20" s="12" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="AP20" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="AQ20" s="9" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA21" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
-      <c r="AF21" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
+      <c r="AF21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
       <c r="AJ21">
         <v>5</v>
       </c>
       <c r="AK21" s="9">
         <v>200</v>
       </c>
-      <c r="AL21" s="14" t="s">
+      <c r="AL21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AM21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP21" s="12" t="s">
+      <c r="AP21" s="26" t="s">
         <v>6</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA22" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
-      <c r="AF22" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
+      <c r="AF22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
       <c r="AJ22">
         <v>6</v>
       </c>
       <c r="AK22" s="9">
         <v>175</v>
       </c>
-      <c r="AL22" s="14" t="s">
-        <v>34</v>
+      <c r="AL22" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="AM22" s="14" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AN22" s="14" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AO22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP22" s="26" t="s">
         <v>6</v>
       </c>
       <c r="AQ22" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA23" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
-      <c r="AF23" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
+      <c r="AF23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
       <c r="AJ23">
         <v>7</v>
       </c>
       <c r="AK23" s="9">
         <v>150</v>
       </c>
-      <c r="AL23" s="14" t="s">
-        <v>79</v>
+      <c r="AL23" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="AM23" s="14" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="AN23" s="14" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AO23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP23" s="26" t="s">
         <v>6</v>
       </c>
       <c r="AQ23" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA24" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
-      <c r="AF24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
+      <c r="AF24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
       <c r="AJ24">
         <v>8</v>
       </c>
       <c r="AK24" s="9">
         <v>80</v>
       </c>
-      <c r="AL24" s="14" t="s">
-        <v>38</v>
+      <c r="AL24" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="AN24" s="14" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AO24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP24" s="12">
+        <v>93</v>
+      </c>
+      <c r="AP24" s="26">
         <v>255255255128</v>
       </c>
       <c r="AQ24" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA25" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
-      <c r="AF25" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
+      <c r="AF25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
       <c r="AJ25">
         <v>9</v>
       </c>
       <c r="AK25" s="9">
         <v>80</v>
       </c>
-      <c r="AL25" s="14" t="s">
-        <v>43</v>
+      <c r="AL25" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AN25" s="14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AO25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP25" s="12">
+        <v>98</v>
+      </c>
+      <c r="AP25" s="26">
         <v>255255255128</v>
       </c>
       <c r="AQ25" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA26" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
@@ -2107,28 +2116,28 @@
       <c r="AK26" s="9">
         <v>60</v>
       </c>
-      <c r="AL26" s="14" t="s">
-        <v>83</v>
+      <c r="AL26" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="AN26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="AO26" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP26" s="12">
+      <c r="AP26" s="28">
         <v>255255255192</v>
       </c>
       <c r="AQ26" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA27" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
@@ -2146,28 +2155,28 @@
       <c r="AK27" s="9">
         <v>50</v>
       </c>
-      <c r="AL27" s="14" t="s">
-        <v>99</v>
+      <c r="AL27" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="AM27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN27" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AN27" s="14" t="s">
+      <c r="AO27" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="AO27" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="AP27" s="12">
         <v>255255255192</v>
       </c>
       <c r="AQ27" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA28" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
@@ -2185,28 +2194,28 @@
       <c r="AK28" s="9">
         <v>12</v>
       </c>
-      <c r="AL28" s="14" t="s">
-        <v>103</v>
+      <c r="AL28" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="AM28" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN28" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AN28" s="14" t="s">
+      <c r="AO28" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AO28" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP28" s="12">
+      <c r="AP28" s="28">
         <v>255255255240</v>
       </c>
       <c r="AQ28" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA29" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
@@ -2224,8 +2233,8 @@
       <c r="AK29" s="9">
         <v>10</v>
       </c>
-      <c r="AL29" s="14" t="s">
-        <v>107</v>
+      <c r="AL29" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="AM29" s="14" t="s">
         <v>115</v>
@@ -2240,7 +2249,7 @@
         <v>255255255240</v>
       </c>
       <c r="AQ29" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="27:43" x14ac:dyDescent="0.25">
@@ -2250,7 +2259,7 @@
       <c r="AK30" s="9">
         <v>2</v>
       </c>
-      <c r="AL30" s="14" t="s">
+      <c r="AL30" s="27" t="s">
         <v>112</v>
       </c>
       <c r="AM30" s="14" t="s">
@@ -2270,15 +2279,15 @@
       </c>
     </row>
     <row r="31" spans="27:43" x14ac:dyDescent="0.25">
-      <c r="AA31" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB31" s="24"/>
+      <c r="AA31" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB31" s="18"/>
       <c r="AC31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD31" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="AD31" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="AJ31">
         <v>15</v>
@@ -2286,7 +2295,7 @@
       <c r="AK31" s="9">
         <v>2</v>
       </c>
-      <c r="AL31" s="14" t="s">
+      <c r="AL31" s="27" t="s">
         <v>116</v>
       </c>
       <c r="AM31" s="14" t="s">
@@ -2307,13 +2316,13 @@
     </row>
     <row r="32" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA32" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AB32" s="15">
         <v>10</v>
       </c>
       <c r="AC32" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AD32" s="15">
         <v>60</v>
@@ -2324,7 +2333,7 @@
       <c r="AK32" s="9">
         <v>2</v>
       </c>
-      <c r="AL32" s="14" t="s">
+      <c r="AL32" s="27" t="s">
         <v>120</v>
       </c>
       <c r="AM32" s="14" t="s">
@@ -2345,13 +2354,13 @@
     </row>
     <row r="33" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA33" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB33" s="15">
         <v>20</v>
       </c>
       <c r="AC33" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AD33" s="15">
         <v>50</v>
@@ -2362,7 +2371,7 @@
       <c r="AK33" s="9">
         <v>2</v>
       </c>
-      <c r="AL33" s="14" t="s">
+      <c r="AL33" s="27" t="s">
         <v>124</v>
       </c>
       <c r="AM33" s="14" t="s">
@@ -2383,13 +2392,13 @@
     </row>
     <row r="34" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA34" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AB34" s="15">
         <v>30</v>
       </c>
       <c r="AC34" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AD34" s="15">
         <v>12</v>
@@ -2397,13 +2406,13 @@
     </row>
     <row r="35" spans="27:43" x14ac:dyDescent="0.25">
       <c r="AA35" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AB35" s="15">
         <v>40</v>
       </c>
       <c r="AC35" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AD35" s="15">
         <v>10</v>
@@ -2411,12 +2420,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA16:AI16"/>
+    <mergeCell ref="AB10:AF13"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="J5:Q5"/>
     <mergeCell ref="S5:Z5"/>
@@ -2433,17 +2447,12 @@
     <mergeCell ref="AF23:AI23"/>
     <mergeCell ref="AF24:AI24"/>
     <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AA16:AI16"/>
-    <mergeCell ref="AB10:AF13"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA29:AE29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
